--- a/biology/Zoologie/Ibis_(oiseau)/Ibis_(oiseau).xlsx
+++ b/biology/Zoologie/Ibis_(oiseau)/Ibis_(oiseau).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Threskionithinae
 Les ibis sont des oiseaux échassiers à long cou et au bec recourbé, constituant la sous-famille des Threskionithinae.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs espèces sont originaires d'Afrique (Ibis chauve, Ibis hagedash, Ibis sacré) et d'Amérique (Ibis blanc, Ibis rouge), une d'Asie (Ibis nippon).
 On peut rencontrer en Europe l'ibis chauve qui est en cours de réintroduction ainsi que l'Ibis falcinelle, que l'on rencontre aussi en Afrique, bien que des ibis sacrés, échappés de réserves ornithologiques, se soient acclimatés dans l'ouest de la France (du Morbihan à la Charente-Maritime).
@@ -544,7 +558,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bostrychia
 Cercibis
